--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H2">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I2">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J2">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>175.663453495101</v>
+        <v>190.5838375852823</v>
       </c>
       <c r="R2">
-        <v>702.6538139804042</v>
+        <v>762.335350341129</v>
       </c>
       <c r="S2">
-        <v>0.01631455027760146</v>
+        <v>0.00356701421417128</v>
       </c>
       <c r="T2">
-        <v>0.009020423440837151</v>
+        <v>0.001830272635938194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H3">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I3">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J3">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>42.000105228774</v>
+        <v>29.2711674857805</v>
       </c>
       <c r="R3">
-        <v>252.000631372644</v>
+        <v>175.627004914683</v>
       </c>
       <c r="S3">
-        <v>0.003900713636137722</v>
+        <v>0.0005478464061279366</v>
       </c>
       <c r="T3">
-        <v>0.003235095799825765</v>
+        <v>0.0004216586585985905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H4">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I4">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J4">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>7.920357816888001</v>
+        <v>12.35490235089</v>
       </c>
       <c r="R4">
-        <v>47.522146901328</v>
+        <v>74.12941410534</v>
       </c>
       <c r="S4">
-        <v>0.0007355945317551022</v>
+        <v>0.0002312374063755661</v>
       </c>
       <c r="T4">
-        <v>0.0006100726692698216</v>
+        <v>0.0001779755301842188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H5">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I5">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J5">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>19.35928184091</v>
+        <v>18.07166368516725</v>
       </c>
       <c r="R5">
-        <v>77.43712736364002</v>
+        <v>72.28665474066899</v>
       </c>
       <c r="S5">
-        <v>0.001797972034863765</v>
+        <v>0.000338233724619325</v>
       </c>
       <c r="T5">
-        <v>0.000994110705676111</v>
+        <v>0.0001735512934775424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H6">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I6">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J6">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>126.641400409172</v>
+        <v>333.3191698985596</v>
       </c>
       <c r="R6">
-        <v>759.8484024550321</v>
+        <v>1999.915019391357</v>
       </c>
       <c r="S6">
-        <v>0.01176168094781829</v>
+        <v>0.006238483976123641</v>
       </c>
       <c r="T6">
-        <v>0.009754667525620498</v>
+        <v>0.004801547944163756</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H7">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I7">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J7">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>11.29806998364</v>
+        <v>3.5563883935095</v>
       </c>
       <c r="R7">
-        <v>67.78841990184002</v>
+        <v>21.338330361057</v>
       </c>
       <c r="S7">
-        <v>0.001049295838835909</v>
+        <v>6.656224426735858E-05</v>
       </c>
       <c r="T7">
-        <v>0.0008702439803691474</v>
+        <v>5.123068494590409E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J8">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>461.9939168585153</v>
+        <v>719.2025888167356</v>
       </c>
       <c r="R8">
-        <v>2771.963501151091</v>
+        <v>4315.215532900414</v>
       </c>
       <c r="S8">
-        <v>0.04290717752935716</v>
+        <v>0.01346077343011898</v>
       </c>
       <c r="T8">
-        <v>0.03558549607990267</v>
+        <v>0.0103602973474979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J9">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
         <v>110.4600458265057</v>
@@ -1013,10 +1013,10 @@
         <v>994.1404124385509</v>
       </c>
       <c r="S9">
-        <v>0.01025885541612072</v>
+        <v>0.00206739752202148</v>
       </c>
       <c r="T9">
-        <v>0.01276242624948494</v>
+        <v>0.002386807842968821</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J10">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>20.830497510668</v>
+        <v>46.62345909244222</v>
       </c>
       <c r="R10">
-        <v>187.474477596012</v>
+        <v>419.61113183198</v>
       </c>
       <c r="S10">
-        <v>0.001934609574066712</v>
+        <v>0.0008726161851062316</v>
       </c>
       <c r="T10">
-        <v>0.002406731648812951</v>
+        <v>0.001007434289887596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J11">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>50.91480480030167</v>
+        <v>68.19669218163217</v>
       </c>
       <c r="R11">
-        <v>305.48882880181</v>
+        <v>409.180153089793</v>
       </c>
       <c r="S11">
-        <v>0.004728656566073667</v>
+        <v>0.001276386148235116</v>
       </c>
       <c r="T11">
-        <v>0.003921758535156241</v>
+        <v>0.000982390803514657</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J12">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>333.0661867757976</v>
+        <v>1257.840186925703</v>
       </c>
       <c r="R12">
-        <v>2997.595680982178</v>
+        <v>11320.56168233133</v>
       </c>
       <c r="S12">
-        <v>0.03093315622463434</v>
+        <v>0.02354204786075905</v>
       </c>
       <c r="T12">
-        <v>0.03848208293883671</v>
+        <v>0.02717926469151647</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J13">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>29.71386193787334</v>
+        <v>13.420674973581</v>
       </c>
       <c r="R13">
-        <v>267.42475744086</v>
+        <v>120.786074762229</v>
       </c>
       <c r="S13">
-        <v>0.002759642286895278</v>
+        <v>0.0002511846702274248</v>
       </c>
       <c r="T13">
-        <v>0.00343310532538716</v>
+        <v>0.0002899923863438419</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H14">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I14">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J14">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>2911.916081589665</v>
+        <v>8050.819758655392</v>
       </c>
       <c r="R14">
-        <v>17471.49648953799</v>
+        <v>48304.91855193234</v>
       </c>
       <c r="S14">
-        <v>0.2704410073469021</v>
+        <v>0.1506811326642762</v>
       </c>
       <c r="T14">
-        <v>0.224292949593422</v>
+        <v>0.1159741189586222</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H15">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I15">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J15">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>696.222119119023</v>
+        <v>1236.499886555078</v>
       </c>
       <c r="R15">
-        <v>6265.999072071207</v>
+        <v>11128.4989789957</v>
       </c>
       <c r="S15">
-        <v>0.06466086451535182</v>
+        <v>0.02314263752396885</v>
       </c>
       <c r="T15">
-        <v>0.08044070036393663</v>
+        <v>0.02671814595926534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H16">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I16">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J16">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>131.293202086476</v>
+        <v>521.9072783036689</v>
       </c>
       <c r="R16">
-        <v>1181.638818778284</v>
+        <v>4697.16550473302</v>
       </c>
       <c r="S16">
-        <v>0.01219371191860826</v>
+        <v>0.00976814562963968</v>
       </c>
       <c r="T16">
-        <v>0.01516946508712471</v>
+        <v>0.01127731186273685</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H17">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I17">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J17">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>320.912534730195</v>
+        <v>763.4000286263263</v>
       </c>
       <c r="R17">
-        <v>1925.47520838117</v>
+        <v>4580.400171757958</v>
       </c>
       <c r="S17">
-        <v>0.02980439914164788</v>
+        <v>0.01428798363864594</v>
       </c>
       <c r="T17">
-        <v>0.02471857600265824</v>
+        <v>0.01099697277879585</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H18">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I18">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J18">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>2099.293410833395</v>
+        <v>14080.37844634716</v>
       </c>
       <c r="R18">
-        <v>18893.64069750055</v>
+        <v>126723.4060171244</v>
       </c>
       <c r="S18">
-        <v>0.1949695694638841</v>
+        <v>0.2635318434941088</v>
       </c>
       <c r="T18">
-        <v>0.2425499385893062</v>
+        <v>0.3042471823748444</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H19">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I19">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J19">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>187.2844409107801</v>
+        <v>150.232266863169</v>
       </c>
       <c r="R19">
-        <v>1685.55996819702</v>
+        <v>1352.090401768521</v>
       </c>
       <c r="S19">
-        <v>0.0173938367182142</v>
+        <v>0.002811784242135967</v>
       </c>
       <c r="T19">
-        <v>0.02163862821996317</v>
+        <v>0.003246201376551973</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H20">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I20">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J20">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>295.2835056631688</v>
+        <v>716.4155204531686</v>
       </c>
       <c r="R20">
-        <v>1181.134022652675</v>
+        <v>2865.662081812674</v>
       </c>
       <c r="S20">
-        <v>0.02742413122045635</v>
+        <v>0.01340860996969825</v>
       </c>
       <c r="T20">
-        <v>0.01516298469135414</v>
+        <v>0.006880099276309848</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H21">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I21">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J21">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>70.60056069386249</v>
+        <v>110.031988831233</v>
       </c>
       <c r="R21">
-        <v>423.6033641631749</v>
+        <v>660.191932987398</v>
       </c>
       <c r="S21">
-        <v>0.006556949519946648</v>
+        <v>0.002059385901487657</v>
       </c>
       <c r="T21">
-        <v>0.005438071550582295</v>
+        <v>0.001585038958082258</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H22">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I22">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J22">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>13.31381670885</v>
+        <v>46.44278292434</v>
       </c>
       <c r="R22">
-        <v>79.88290025309999</v>
+        <v>278.65669754604</v>
       </c>
       <c r="S22">
-        <v>0.001236506101648294</v>
+        <v>0.0008692346052831564</v>
       </c>
       <c r="T22">
-        <v>0.001025508680986417</v>
+        <v>0.0006690201734855935</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H23">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I23">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J23">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>32.5422078148125</v>
+        <v>67.93241498597851</v>
       </c>
       <c r="R23">
-        <v>130.16883125925</v>
+        <v>271.729659943914</v>
       </c>
       <c r="S23">
-        <v>0.003022321803286874</v>
+        <v>0.001271439870915267</v>
       </c>
       <c r="T23">
-        <v>0.001671061842112282</v>
+        <v>0.0006523892152523003</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H24">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I24">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J24">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>212.879320831275</v>
+        <v>1252.965779288807</v>
       </c>
       <c r="R24">
-        <v>1277.27592498765</v>
+        <v>7517.794675732844</v>
       </c>
       <c r="S24">
-        <v>0.01977093307493437</v>
+        <v>0.0234508172425347</v>
       </c>
       <c r="T24">
-        <v>0.01639722074360913</v>
+        <v>0.01804929270489495</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H25">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I25">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J25">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>18.99162088425</v>
+        <v>13.368666903507</v>
       </c>
       <c r="R25">
-        <v>113.9497253055</v>
+        <v>80.21200142104202</v>
       </c>
       <c r="S25">
-        <v>0.001763825927388382</v>
+        <v>0.0002502112743321797</v>
       </c>
       <c r="T25">
-        <v>0.00146284664335623</v>
+        <v>0.0001925790680034376</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H26">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I26">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J26">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N26">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O26">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P26">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q26">
-        <v>87.68758628723384</v>
+        <v>3022.808799973035</v>
       </c>
       <c r="R26">
-        <v>526.125517723403</v>
+        <v>18136.85279983821</v>
       </c>
       <c r="S26">
-        <v>0.008143888251886664</v>
+        <v>0.0565756367005725</v>
       </c>
       <c r="T26">
-        <v>0.006754215032307677</v>
+        <v>0.04354433434934987</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H27">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I27">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J27">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P27">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q27">
-        <v>20.96558947262033</v>
+        <v>464.2636216300787</v>
       </c>
       <c r="R27">
-        <v>188.690305253583</v>
+        <v>4178.372594670708</v>
       </c>
       <c r="S27">
-        <v>0.001947156091634936</v>
+        <v>0.008689272702550587</v>
       </c>
       <c r="T27">
-        <v>0.002422340018232087</v>
+        <v>0.01003175442324398</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H28">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I28">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J28">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N28">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O28">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P28">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q28">
-        <v>3.953679867244</v>
+        <v>195.9584192566489</v>
       </c>
       <c r="R28">
-        <v>35.583118805196</v>
+        <v>1763.62577330984</v>
       </c>
       <c r="S28">
-        <v>0.0003671936745652776</v>
+        <v>0.0036676062132615</v>
       </c>
       <c r="T28">
-        <v>0.0004568036102305065</v>
+        <v>0.004234246767488761</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H29">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I29">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J29">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N29">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O29">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P29">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q29">
-        <v>9.663755682288334</v>
+        <v>286.6307275045407</v>
       </c>
       <c r="R29">
-        <v>57.98253409373001</v>
+        <v>1719.784365027244</v>
       </c>
       <c r="S29">
-        <v>0.0008975106933870379</v>
+        <v>0.005364651547482047</v>
       </c>
       <c r="T29">
-        <v>0.0007443594545304893</v>
+        <v>0.004128988983149201</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H30">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I30">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J30">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N30">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O30">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P30">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q30">
-        <v>63.21678473789712</v>
+        <v>5286.702863868039</v>
       </c>
       <c r="R30">
-        <v>568.951062641074</v>
+        <v>47580.32577481234</v>
       </c>
       <c r="S30">
-        <v>0.005871189439091233</v>
+        <v>0.09894723760654081</v>
       </c>
       <c r="T30">
-        <v>0.00730399437108852</v>
+        <v>0.1142344615603817</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H31">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I31">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J31">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N31">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O31">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P31">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q31">
-        <v>5.639764372486668</v>
+        <v>56.40710286994801</v>
       </c>
       <c r="R31">
-        <v>50.75787935238001</v>
+        <v>507.6639258295321</v>
       </c>
       <c r="S31">
-        <v>0.0005237869208311176</v>
+        <v>0.001055729280439592</v>
       </c>
       <c r="T31">
-        <v>0.0006516118686152348</v>
+        <v>0.001218838128499444</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H32">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I32">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J32">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N32">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O32">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P32">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q32">
-        <v>1007.399370202236</v>
+        <v>4642.719552975992</v>
       </c>
       <c r="R32">
-        <v>6044.396221213415</v>
+        <v>27856.31731785595</v>
       </c>
       <c r="S32">
-        <v>0.09356110988246495</v>
+        <v>0.08689428677531878</v>
       </c>
       <c r="T32">
-        <v>0.0775958406184095</v>
+        <v>0.06687956330776006</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H33">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I33">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J33">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P33">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q33">
-        <v>240.8633026053683</v>
+        <v>713.0605792521982</v>
       </c>
       <c r="R33">
-        <v>2167.769723448314</v>
+        <v>6417.545213269784</v>
       </c>
       <c r="S33">
-        <v>0.02236991464188653</v>
+        <v>0.01334581806088166</v>
       </c>
       <c r="T33">
-        <v>0.02782906808255876</v>
+        <v>0.01540773019182149</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H34">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I34">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J34">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N34">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O34">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P34">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q34">
-        <v>45.42187528341999</v>
+        <v>300.9717269121444</v>
       </c>
       <c r="R34">
-        <v>408.7968775507799</v>
+        <v>2708.7455422093</v>
       </c>
       <c r="S34">
-        <v>0.004218506771159232</v>
+        <v>0.005633061237309254</v>
       </c>
       <c r="T34">
-        <v>0.005247991063922311</v>
+        <v>0.006503362124564685</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H35">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I35">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J35">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N35">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O35">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P35">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q35">
-        <v>111.0221161321083</v>
+        <v>440.2349507123758</v>
       </c>
       <c r="R35">
-        <v>666.13269679265</v>
+        <v>2641.409704274255</v>
       </c>
       <c r="S35">
-        <v>0.01031105707832109</v>
+        <v>0.008239546158069938</v>
       </c>
       <c r="T35">
-        <v>0.008551578136063548</v>
+        <v>0.006341697128267015</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H36">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I36">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J36">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N36">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O36">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P36">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q36">
-        <v>726.2664172618411</v>
+        <v>8119.825096801779</v>
       </c>
       <c r="R36">
-        <v>6536.39775535657</v>
+        <v>73078.42587121601</v>
       </c>
       <c r="S36">
-        <v>0.06745119570179819</v>
+        <v>0.1519726536302748</v>
       </c>
       <c r="T36">
-        <v>0.08391198390719627</v>
+        <v>0.1754522377713071</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H37">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I37">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J37">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N37">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O37">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P37">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q37">
-        <v>64.79246741176667</v>
+        <v>86.63543636083499</v>
       </c>
       <c r="R37">
-        <v>583.1322067059</v>
+        <v>779.718927247515</v>
       </c>
       <c r="S37">
-        <v>0.006017529236544362</v>
+        <v>0.001621490242118488</v>
       </c>
       <c r="T37">
-        <v>0.007486046929254542</v>
+        <v>0.001872008448284097</v>
       </c>
     </row>
   </sheetData>
